--- a/Dados/cell_phones_total.xlsx
+++ b/Dados/cell_phones_total.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pos Mackenzie\Componentes Curriculares\Paradigmas Linguagem Programacao\Aprofundamento 02\Dados\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EA8A77-59FD-43BD-840D-35829794E10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4971" uniqueCount="2547">
   <si>
     <t>country</t>
   </si>
@@ -7661,14 +7666,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -7679,28 +7679,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -7990,19 +7999,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8303,7 +8307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -8452,7 +8456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:58">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -8601,7 +8605,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:58">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -8750,7 +8754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:58">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -8899,7 +8903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:58">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -9018,7 +9022,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:58">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -9167,7 +9171,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:58">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -9316,7 +9320,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:58">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -9420,7 +9424,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="11" spans="1:58">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -9545,7 +9549,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:58">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>193</v>
       </c>
@@ -9694,7 +9698,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:58">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>223</v>
       </c>
@@ -9843,7 +9847,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:58">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -9992,7 +9996,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:58">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>266</v>
       </c>
@@ -10141,7 +10145,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:58">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>284</v>
       </c>
@@ -10290,7 +10294,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="17" spans="1:58">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>308</v>
       </c>
@@ -10439,7 +10443,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:58">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>325</v>
       </c>
@@ -10588,7 +10592,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:58">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>343</v>
       </c>
@@ -10737,7 +10741,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:58">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>366</v>
       </c>
@@ -10886,7 +10890,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:58">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>383</v>
       </c>
@@ -11035,7 +11039,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:58">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>409</v>
       </c>
@@ -11181,7 +11185,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="23" spans="1:58">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>428</v>
       </c>
@@ -11330,7 +11334,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="24" spans="1:58">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>443</v>
       </c>
@@ -11479,7 +11483,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:58">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>453</v>
       </c>
@@ -11628,7 +11632,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="26" spans="1:58">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>469</v>
       </c>
@@ -11762,7 +11766,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:58">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>486</v>
       </c>
@@ -11911,7 +11915,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:58">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>498</v>
       </c>
@@ -12060,7 +12064,7 @@
         <v>202000000</v>
       </c>
     </row>
-    <row r="29" spans="1:58">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>499</v>
       </c>
@@ -12209,7 +12213,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:58">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>516</v>
       </c>
@@ -12355,7 +12359,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="31" spans="1:58">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>541</v>
       </c>
@@ -12504,7 +12508,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="32" spans="1:58">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>555</v>
       </c>
@@ -12653,7 +12657,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="33" spans="1:58">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>571</v>
       </c>
@@ -12802,7 +12806,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="34" spans="1:58">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>584</v>
       </c>
@@ -12951,7 +12955,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="35" spans="1:58">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>608</v>
       </c>
@@ -13100,7 +13104,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:58">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>626</v>
       </c>
@@ -13249,7 +13253,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:58">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>646</v>
       </c>
@@ -13398,7 +13402,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="38" spans="1:58">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>672</v>
       </c>
@@ -13547,7 +13551,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="39" spans="1:58">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>689</v>
       </c>
@@ -13696,7 +13700,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="40" spans="1:58">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>703</v>
       </c>
@@ -13839,7 +13843,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="41" spans="1:58">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>703</v>
       </c>
@@ -13985,7 +13989,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:58">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>733</v>
       </c>
@@ -14134,7 +14138,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="43" spans="1:58">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>753</v>
       </c>
@@ -14283,7 +14287,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="44" spans="1:58">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>765</v>
       </c>
@@ -14432,7 +14436,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:58">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>777</v>
       </c>
@@ -14581,7 +14585,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="46" spans="1:58">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>796</v>
       </c>
@@ -14730,7 +14734,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="47" spans="1:58">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>811</v>
       </c>
@@ -14870,7 +14874,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="48" spans="1:58">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>826</v>
       </c>
@@ -15019,7 +15023,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="49" spans="1:58">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>843</v>
       </c>
@@ -15168,7 +15172,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="50" spans="1:58">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>855</v>
       </c>
@@ -15317,7 +15321,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="51" spans="1:58">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>888</v>
       </c>
@@ -15466,7 +15470,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="52" spans="1:58">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>901</v>
       </c>
@@ -15612,7 +15616,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="53" spans="1:58">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>912</v>
       </c>
@@ -15761,7 +15765,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="54" spans="1:58">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>941</v>
       </c>
@@ -15910,7 +15914,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="55" spans="1:58">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>959</v>
       </c>
@@ -16059,7 +16063,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="56" spans="1:58">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>979</v>
       </c>
@@ -16208,7 +16212,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="57" spans="1:58">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>995</v>
       </c>
@@ -16357,7 +16361,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="58" spans="1:58">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1014</v>
       </c>
@@ -16500,7 +16504,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="59" spans="1:58">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1024</v>
       </c>
@@ -16640,7 +16644,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="60" spans="1:58">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1048</v>
       </c>
@@ -16789,7 +16793,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="61" spans="1:58">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1061</v>
       </c>
@@ -16932,7 +16936,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="62" spans="1:58">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1077</v>
       </c>
@@ -17081,7 +17085,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="63" spans="1:58">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1099</v>
       </c>
@@ -17224,7 +17228,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="64" spans="1:58">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1111</v>
       </c>
@@ -17373,7 +17377,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="65" spans="1:58">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1137</v>
       </c>
@@ -17522,7 +17526,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="66" spans="1:58">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1156</v>
       </c>
@@ -17665,7 +17669,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="67" spans="1:58">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1164</v>
       </c>
@@ -17814,7 +17818,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="68" spans="1:58">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1174</v>
       </c>
@@ -17963,7 +17967,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="69" spans="1:58">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1202</v>
       </c>
@@ -18112,7 +18116,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="70" spans="1:58">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1216</v>
       </c>
@@ -18261,7 +18265,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="71" spans="1:58">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1230</v>
       </c>
@@ -18407,7 +18411,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="72" spans="1:58">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1239</v>
       </c>
@@ -18553,7 +18557,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="73" spans="1:58">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1250</v>
       </c>
@@ -18699,7 +18703,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="74" spans="1:58">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1258</v>
       </c>
@@ -18848,7 +18852,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="75" spans="1:58">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1266</v>
       </c>
@@ -18994,7 +18998,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="76" spans="1:58">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1278</v>
       </c>
@@ -19143,7 +19147,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="77" spans="1:58">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1286</v>
       </c>
@@ -19289,7 +19293,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="78" spans="1:58">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1293</v>
       </c>
@@ -19435,7 +19439,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="79" spans="1:58">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1308</v>
       </c>
@@ -19584,7 +19588,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="80" spans="1:58">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1323</v>
       </c>
@@ -19688,7 +19692,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="81" spans="1:58">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1328</v>
       </c>
@@ -19831,7 +19835,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="82" spans="1:58">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1343</v>
       </c>
@@ -19983,7 +19987,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="83" spans="1:58">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1360</v>
       </c>
@@ -20132,7 +20136,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="84" spans="1:58">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1375</v>
       </c>
@@ -20281,7 +20285,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="85" spans="1:58">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1394</v>
       </c>
@@ -20430,7 +20434,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="86" spans="1:58">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1404</v>
       </c>
@@ -20579,7 +20583,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:58">
+    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1415</v>
       </c>
@@ -20728,7 +20732,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="88" spans="1:58">
+    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1442</v>
       </c>
@@ -20877,7 +20881,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="89" spans="1:58">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1462</v>
       </c>
@@ -21026,7 +21030,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="90" spans="1:58">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1477</v>
       </c>
@@ -21175,7 +21179,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="91" spans="1:58">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1495</v>
       </c>
@@ -21324,7 +21328,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="92" spans="1:58">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1505</v>
       </c>
@@ -21473,7 +21477,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="93" spans="1:58">
+    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1522</v>
       </c>
@@ -21568,7 +21572,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:58">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1532</v>
       </c>
@@ -21717,7 +21721,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="95" spans="1:58">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1553</v>
       </c>
@@ -21866,7 +21870,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="96" spans="1:58">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1564</v>
       </c>
@@ -22015,7 +22019,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="97" spans="1:58">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1575</v>
       </c>
@@ -22164,7 +22168,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="98" spans="1:58">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1602</v>
       </c>
@@ -22313,7 +22317,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="99" spans="1:58">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1611</v>
       </c>
@@ -22462,7 +22466,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="100" spans="1:58">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1625</v>
       </c>
@@ -22611,7 +22615,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="101" spans="1:58">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1638</v>
       </c>
@@ -22760,7 +22764,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="102" spans="1:58">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1651</v>
       </c>
@@ -22909,7 +22913,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="103" spans="1:58">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1653</v>
       </c>
@@ -23037,7 +23041,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="104" spans="1:58">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1663</v>
       </c>
@@ -23180,7 +23184,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="105" spans="1:58">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1683</v>
       </c>
@@ -23203,7 +23207,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="106" spans="1:58">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1685</v>
       </c>
@@ -23352,7 +23356,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="107" spans="1:58">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1700</v>
       </c>
@@ -23501,7 +23505,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="108" spans="1:58">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1715</v>
       </c>
@@ -23650,7 +23654,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="109" spans="1:58">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1725</v>
       </c>
@@ -23793,7 +23797,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="110" spans="1:58">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1731</v>
       </c>
@@ -23936,7 +23940,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="111" spans="1:58">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1739</v>
       </c>
@@ -24073,7 +24077,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="1:58">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1744</v>
       </c>
@@ -24147,7 +24151,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="113" spans="1:58">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1754</v>
       </c>
@@ -24296,7 +24300,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="114" spans="1:58">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1765</v>
       </c>
@@ -24445,7 +24449,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="115" spans="1:58">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1774</v>
       </c>
@@ -24594,7 +24598,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="116" spans="1:58">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1784</v>
       </c>
@@ -24743,7 +24747,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="117" spans="1:58">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1801</v>
       </c>
@@ -24892,7 +24896,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="118" spans="1:58">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1810</v>
       </c>
@@ -25041,7 +25045,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="119" spans="1:58">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1819</v>
       </c>
@@ -25190,7 +25194,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="120" spans="1:58">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1836</v>
       </c>
@@ -25339,7 +25343,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="121" spans="1:58">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1847</v>
       </c>
@@ -25488,7 +25492,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="122" spans="1:58">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1856</v>
       </c>
@@ -25634,7 +25638,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="1:58">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1865</v>
       </c>
@@ -25783,7 +25787,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="124" spans="1:58">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1877</v>
       </c>
@@ -25932,7 +25936,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="125" spans="1:58">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1895</v>
       </c>
@@ -26048,7 +26052,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="126" spans="1:58">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1897</v>
       </c>
@@ -26197,7 +26201,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="127" spans="1:58">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1903</v>
       </c>
@@ -26346,7 +26350,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="128" spans="1:58">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1912</v>
       </c>
@@ -26495,7 +26499,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="129" spans="1:58">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1926</v>
       </c>
@@ -26641,7 +26645,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="130" spans="1:58">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1935</v>
       </c>
@@ -26694,7 +26698,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="131" spans="1:58">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1938</v>
       </c>
@@ -26843,7 +26847,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="132" spans="1:58">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1947</v>
       </c>
@@ -26932,7 +26936,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="133" spans="1:58">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1951</v>
       </c>
@@ -27081,7 +27085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:58">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1956</v>
       </c>
@@ -27230,7 +27234,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="135" spans="1:58">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1962</v>
       </c>
@@ -27379,7 +27383,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="136" spans="1:58">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1970</v>
       </c>
@@ -27528,7 +27532,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="137" spans="1:58">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1976</v>
       </c>
@@ -27677,7 +27681,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="138" spans="1:58">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1986</v>
       </c>
@@ -27826,7 +27830,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="139" spans="1:58">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1995</v>
       </c>
@@ -27963,7 +27967,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="140" spans="1:58">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2002</v>
       </c>
@@ -28106,7 +28110,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="141" spans="1:58">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2009</v>
       </c>
@@ -28255,7 +28259,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="142" spans="1:58">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2020</v>
       </c>
@@ -28404,7 +28408,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="143" spans="1:58">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2033</v>
       </c>
@@ -28553,7 +28557,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="144" spans="1:58">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A144" t="b">
         <v>0</v>
       </c>
@@ -28591,7 +28595,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:58">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2041</v>
       </c>
@@ -28740,7 +28744,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="146" spans="1:58">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2055</v>
       </c>
@@ -28886,7 +28890,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="147" spans="1:58">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2061</v>
       </c>
@@ -28999,7 +29003,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="148" spans="1:58">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2062</v>
       </c>
@@ -29142,7 +29146,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="149" spans="1:58">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2070</v>
       </c>
@@ -29291,7 +29295,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="150" spans="1:58">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2081</v>
       </c>
@@ -29440,7 +29444,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="151" spans="1:58">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2093</v>
       </c>
@@ -29589,7 +29593,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="152" spans="1:58">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2098</v>
       </c>
@@ -29735,7 +29739,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="153" spans="1:58">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2109</v>
       </c>
@@ -29884,7 +29888,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="154" spans="1:58">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2123</v>
       </c>
@@ -29931,7 +29935,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="155" spans="1:58">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2127</v>
       </c>
@@ -30074,7 +30078,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="156" spans="1:58">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2133</v>
       </c>
@@ -30223,7 +30227,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="157" spans="1:58">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2145</v>
       </c>
@@ -30369,7 +30373,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="158" spans="1:58">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2149</v>
       </c>
@@ -30512,7 +30516,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="159" spans="1:58">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2153</v>
       </c>
@@ -30661,7 +30665,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="160" spans="1:58">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2158</v>
       </c>
@@ -30810,7 +30814,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="161" spans="1:58">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2167</v>
       </c>
@@ -30890,7 +30894,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="162" spans="1:58">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2171</v>
       </c>
@@ -31036,7 +31040,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="163" spans="1:58">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2177</v>
       </c>
@@ -31176,7 +31180,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="164" spans="1:58">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2184</v>
       </c>
@@ -31325,7 +31329,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="165" spans="1:58">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2190</v>
       </c>
@@ -31474,7 +31478,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="166" spans="1:58">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2207</v>
       </c>
@@ -31623,7 +31627,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="167" spans="1:58">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2216</v>
       </c>
@@ -31718,7 +31722,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="168" spans="1:58">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2227</v>
       </c>
@@ -31867,7 +31871,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="169" spans="1:58">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2231</v>
       </c>
@@ -32016,7 +32020,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="1:58">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2239</v>
       </c>
@@ -32153,7 +32157,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="171" spans="1:58">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2251</v>
       </c>
@@ -32302,7 +32306,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="172" spans="1:58">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2254</v>
       </c>
@@ -32442,7 +32446,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="173" spans="1:58">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2263</v>
       </c>
@@ -32588,7 +32592,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="174" spans="1:58">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2276</v>
       </c>
@@ -32683,7 +32687,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="175" spans="1:58">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2285</v>
       </c>
@@ -32829,7 +32833,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="176" spans="1:58">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2293</v>
       </c>
@@ -32882,7 +32886,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="177" spans="1:58">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2302</v>
       </c>
@@ -32917,7 +32921,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="178" spans="1:58">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2304</v>
       </c>
@@ -33066,7 +33070,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="179" spans="1:58">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2307</v>
       </c>
@@ -33215,7 +33219,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="180" spans="1:58">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2317</v>
       </c>
@@ -33364,7 +33368,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="181" spans="1:58">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2323</v>
       </c>
@@ -33513,7 +33517,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="182" spans="1:58">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>2329</v>
       </c>
@@ -33662,7 +33666,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="183" spans="1:58">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2339</v>
       </c>
@@ -33805,7 +33809,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="184" spans="1:58">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2346</v>
       </c>
@@ -33813,7 +33817,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="185" spans="1:58">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>2348</v>
       </c>
@@ -33962,7 +33966,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="186" spans="1:58">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2355</v>
       </c>
@@ -34111,7 +34115,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="187" spans="1:58">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2358</v>
       </c>
@@ -34215,7 +34219,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="188" spans="1:58">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>2361</v>
       </c>
@@ -34364,7 +34368,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="189" spans="1:58">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2370</v>
       </c>
@@ -34513,7 +34517,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="190" spans="1:58">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2374</v>
       </c>
@@ -34662,7 +34666,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="191" spans="1:58">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>2386</v>
       </c>
@@ -34805,7 +34809,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="192" spans="1:58">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2389</v>
       </c>
@@ -34948,7 +34952,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="193" spans="1:58">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2397</v>
       </c>
@@ -35007,7 +35011,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="194" spans="1:58">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>2403</v>
       </c>
@@ -35156,7 +35160,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="195" spans="1:58">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>2407</v>
       </c>
@@ -35305,7 +35309,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="196" spans="1:58">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>2412</v>
       </c>
@@ -35454,7 +35458,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="1:58">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>2417</v>
       </c>
@@ -35603,7 +35607,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="198" spans="1:58">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>2434</v>
       </c>
@@ -35743,7 +35747,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="199" spans="1:58">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>2435</v>
       </c>
@@ -35892,7 +35896,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="200" spans="1:58">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>2444</v>
       </c>
@@ -36041,7 +36045,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="201" spans="1:58">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>2446</v>
       </c>
@@ -36190,7 +36194,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="202" spans="1:58">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2459</v>
       </c>
@@ -36339,7 +36343,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="203" spans="1:58">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>2464</v>
       </c>
@@ -36479,7 +36483,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="204" spans="1:58">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>2485</v>
       </c>
@@ -36628,7 +36632,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="205" spans="1:58">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>2486</v>
       </c>
@@ -36774,7 +36778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:58">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>2489</v>
       </c>
@@ -36923,7 +36927,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="207" spans="1:58">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2497</v>
       </c>
@@ -37015,7 +37019,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="208" spans="1:58">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>2500</v>
       </c>
@@ -37104,7 +37108,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="209" spans="1:58">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>2502</v>
       </c>
@@ -37253,7 +37257,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="210" spans="1:58">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2512</v>
       </c>
@@ -37402,7 +37406,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="211" spans="1:58">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>2515</v>
       </c>
@@ -37536,7 +37540,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="212" spans="1:58">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>2519</v>
       </c>
@@ -37682,7 +37686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="213" spans="1:58">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>2523</v>
       </c>
@@ -37831,7 +37835,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="214" spans="1:58">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>2536</v>
       </c>
@@ -37980,7 +37984,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="215" spans="1:58">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>2545</v>
       </c>
@@ -38130,17 +38134,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>